--- a/es/es-pron.xlsx
+++ b/es/es-pron.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29080" windowHeight="13940" activeTab="2"/>
+    <workbookView windowWidth="29080" windowHeight="13940" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="pron" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="87">
   <si>
     <t>单数</t>
   </si>
@@ -150,127 +150,148 @@
     <t>Spanish</t>
   </si>
   <si>
-    <t>English</t>
+    <t>French</t>
   </si>
   <si>
     <t>en</t>
   </si>
   <si>
-    <t>in</t>
+    <t>dans</t>
   </si>
   <si>
     <t>al frente</t>
   </si>
   <si>
-    <t>in front of</t>
+    <t>devant</t>
   </si>
   <si>
     <t>detrás</t>
   </si>
   <si>
-    <t>behind</t>
+    <t>derrière</t>
+  </si>
+  <si>
+    <t>chez</t>
+  </si>
+  <si>
+    <t>arriba</t>
+  </si>
+  <si>
+    <t>sur</t>
+  </si>
+  <si>
+    <t>abajo</t>
+  </si>
+  <si>
+    <t>en bas</t>
+  </si>
+  <si>
+    <t>a la izquierda</t>
+  </si>
+  <si>
+    <t>à gauche</t>
+  </si>
+  <si>
+    <t>a la derecho</t>
+  </si>
+  <si>
+    <t>à droite</t>
+  </si>
+  <si>
+    <t>à</t>
+  </si>
+  <si>
+    <t>junto a</t>
+  </si>
+  <si>
+    <t>près de</t>
+  </si>
+  <si>
+    <t>lejos de</t>
+  </si>
+  <si>
+    <t>loin de</t>
   </si>
   <si>
     <t>entre</t>
   </si>
   <si>
-    <t>between</t>
-  </si>
-  <si>
-    <t>arriba</t>
-  </si>
-  <si>
-    <t>above</t>
-  </si>
-  <si>
-    <t>abajo</t>
-  </si>
-  <si>
-    <t>at the bottom</t>
-  </si>
-  <si>
-    <t>a la izquierda</t>
-  </si>
-  <si>
-    <t>on the left</t>
-  </si>
-  <si>
-    <t>a la derecho</t>
-  </si>
-  <si>
-    <t>on the right</t>
-  </si>
-  <si>
-    <t>junto a</t>
-  </si>
-  <si>
-    <t>near</t>
-  </si>
-  <si>
-    <t>lejos de</t>
-  </si>
-  <si>
-    <t>far from</t>
-  </si>
-  <si>
     <t>interior de</t>
   </si>
   <si>
-    <t>inside of</t>
+    <t>intérieur de</t>
   </si>
   <si>
     <t>exterior de</t>
   </si>
   <si>
-    <t>outside of</t>
+    <t>extérieur de</t>
   </si>
   <si>
     <t>delante de</t>
   </si>
   <si>
-    <t>facing</t>
+    <t>en face de</t>
   </si>
   <si>
     <t>contra</t>
   </si>
   <si>
-    <t>against</t>
+    <t>contre</t>
   </si>
   <si>
     <t>alrededor</t>
   </si>
   <si>
-    <t>around</t>
+    <t>autour de</t>
   </si>
   <si>
     <t>fuera de</t>
   </si>
   <si>
+    <t>en dehors de</t>
+  </si>
+  <si>
     <t>desde</t>
   </si>
   <si>
-    <t>since</t>
+    <t>depuis</t>
   </si>
   <si>
     <t>hasta</t>
   </si>
   <si>
-    <t>until</t>
+    <t>jusque à</t>
   </si>
   <si>
     <t>al principio</t>
   </si>
   <si>
+    <t>au début</t>
+  </si>
+  <si>
     <t>al final</t>
   </si>
   <si>
+    <t xml:space="preserve">à la fin </t>
+  </si>
+  <si>
     <t>antes de</t>
   </si>
   <si>
+    <t>avant que</t>
+  </si>
+  <si>
     <t>después</t>
   </si>
   <si>
+    <t>après</t>
+  </si>
+  <si>
     <t>mientras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pendant que </t>
   </si>
 </sst>
 </file>
@@ -886,7 +907,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -907,12 +928,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1450,7 +1465,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView zoomScale="163" zoomScaleNormal="163" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5"/>
@@ -1511,7 +1526,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="5"/>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="4" t="s">
@@ -1536,7 +1551,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="5"/>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="4" t="s">
@@ -1570,7 +1585,7 @@
       <c r="G5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I5" s="4" t="s">
@@ -1595,7 +1610,7 @@
       <c r="G6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="8"/>
+      <c r="H6" s="1"/>
       <c r="I6" s="4" t="s">
         <v>26</v>
       </c>
@@ -1724,18 +1739,16 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="13.7692307692308" customWidth="1"/>
-    <col min="3" max="3" width="12.9230769230769" customWidth="1"/>
-    <col min="4" max="4" width="10.7692307692308" customWidth="1"/>
-    <col min="5" max="5" width="12.9230769230769" customWidth="1"/>
+    <col min="3" max="5" width="12.9230769230769" customWidth="1"/>
     <col min="6" max="6" width="14.1538461538462" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1780,44 +1793,46 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="C4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="C5" s="1" t="s">
         <v>56</v>
       </c>
@@ -1831,54 +1846,75 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="3:6">
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="C6" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="3:6">
       <c r="C7" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="3:6">
       <c r="C8" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="6:6">
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="5:6">
+        <v>71</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="7:7">
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="5:7">
       <c r="E10" s="1"/>
       <c r="F10" s="2"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="16" spans="4:4">
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="D18" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A5"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1889,14 +1925,13 @@
   <sheetPr/>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView zoomScale="199" zoomScaleNormal="199" workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:D1"/>
+    <sheetView tabSelected="1" zoomScale="199" zoomScaleNormal="199" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="13.6153846153846" customWidth="1"/>
-    <col min="2" max="2" width="8.38461538461539" customWidth="1"/>
+    <col min="1" max="2" width="13.6153846153846" customWidth="1"/>
     <col min="3" max="3" width="8.92307692307692" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1916,41 +1951,53 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3" s="1"/>
+        <v>77</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="C3" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>79</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" s="1"/>
+        <v>81</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="C4" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" s="1"/>
+        <v>85</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="2:3">
